--- a/setting/sample.xlsx
+++ b/setting/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\mo-mo-\program\seat-change-for-class\setting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A03F31-D525-44F4-AE70-1619383C77A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03CA83CC-D3DB-46F2-8FE6-33EA5B22C18A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="112">
   <si>
     <t>出席番号</t>
   </si>
@@ -33,7 +33,7 @@
     <t>希望</t>
   </si>
   <si>
-    <t>眼鏡の有無</t>
+    <t>前席考慮</t>
   </si>
   <si>
     <t>number</t>
@@ -51,300 +51,300 @@
     <t>川野 洵子</t>
   </si>
   <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>堀江 銀之助</t>
+  </si>
+  <si>
+    <t>A3,A4</t>
+  </si>
+  <si>
+    <t>浜田 大夢</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>新谷 一智</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>杉浦 美次</t>
+  </si>
+  <si>
+    <t>B5,C5</t>
+  </si>
+  <si>
+    <t>池田 秀一</t>
+  </si>
+  <si>
+    <t>B6,C6,D6</t>
+  </si>
+  <si>
+    <t>松浦 健也</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>樋口 繁美</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>中尾 秋代</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>宮内 彰揮</t>
+  </si>
+  <si>
+    <t>C1,E1</t>
+  </si>
+  <si>
+    <t>高島 理絵</t>
+  </si>
+  <si>
+    <t>C3,C4,C5</t>
+  </si>
+  <si>
+    <t>杉本 真知子</t>
+  </si>
+  <si>
+    <t>A2,F2</t>
+  </si>
+  <si>
+    <t>阿部 十三男</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>森山 美貴</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>田口 直武</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>福井 和広</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>高橋 洋和</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>滝沢 準一郎</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>武藤 順子</t>
+  </si>
+  <si>
+    <t>D1,E1</t>
+  </si>
+  <si>
+    <t>吉田 久紀</t>
+  </si>
+  <si>
+    <t>小山 好利</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>大西 竹義</t>
+  </si>
+  <si>
+    <t>深沢 則重</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>村井 準一郎</t>
+  </si>
+  <si>
+    <t>D1,D2,D3</t>
+  </si>
+  <si>
+    <t>中谷 雅栄</t>
+  </si>
+  <si>
+    <t>塚本 研五</t>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
-    <t>堀江 銀之助</t>
-  </si>
-  <si>
-    <t>A3,A4</t>
-  </si>
-  <si>
-    <t>浜田 大夢</t>
-  </si>
-  <si>
-    <t>A5,A7</t>
-  </si>
-  <si>
-    <t>新谷 一智</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>杉浦 美次</t>
-  </si>
-  <si>
-    <t>B5,C5</t>
-  </si>
-  <si>
-    <t>池田 秀一</t>
-  </si>
-  <si>
-    <t>B6,C6,D6</t>
-  </si>
-  <si>
-    <t>松浦 健也</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>樋口 繁美</t>
-  </si>
-  <si>
-    <t>中尾 秋代</t>
-  </si>
-  <si>
-    <t>宮内 彰揮</t>
-  </si>
-  <si>
-    <t>C1,E1</t>
-  </si>
-  <si>
-    <t>高島 理絵</t>
-  </si>
-  <si>
-    <t>C3,C4,C5</t>
-  </si>
-  <si>
-    <t>杉本 真知子</t>
-  </si>
-  <si>
-    <t>A2,F2</t>
-  </si>
-  <si>
-    <t>阿部 十三男</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>森山 美貴</t>
+    <t>石田 美津江</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>中沢 元臣</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>広瀬 正輝</t>
+  </si>
+  <si>
+    <t>E5,E6</t>
+  </si>
+  <si>
+    <t>荻野 惣之助</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>久保 多栄子</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>長沢 克</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>阿部 里香</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>寺田 保平</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>茂木 信好</t>
+  </si>
+  <si>
+    <t>野沢 邦江</t>
+  </si>
+  <si>
+    <t>高松 有</t>
+  </si>
+  <si>
+    <t>藤田 利克</t>
+  </si>
+  <si>
+    <t>工藤 宏幸</t>
+  </si>
+  <si>
+    <t>C1,C2,C3</t>
+  </si>
+  <si>
+    <t>新田 俊憲</t>
+  </si>
+  <si>
+    <t>清水 征二郎</t>
+  </si>
+  <si>
+    <t>長野 菊治</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>若林 亜依</t>
+  </si>
+  <si>
+    <t>村井 佐十郎</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>田上 孝成</t>
+  </si>
+  <si>
+    <t>藤沢 利克</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>藤村 英則</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>E6</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>田口 直武</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>福井 和広</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>高橋 洋和</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>滝沢 準一郎</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>武藤 順子</t>
-  </si>
-  <si>
-    <t>D1,E1</t>
-  </si>
-  <si>
-    <t>吉田 久紀</t>
-  </si>
-  <si>
-    <t>小山 好利</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>大西 竹義</t>
-  </si>
-  <si>
-    <t>深沢 則重</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>村井 準一郎</t>
-  </si>
-  <si>
-    <t>D1,D2,D3</t>
-  </si>
-  <si>
-    <t>中谷 雅栄</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>塚本 研五</t>
-  </si>
-  <si>
-    <t>石田 美津江</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>中沢 元臣</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>広瀬 正輝</t>
-  </si>
-  <si>
-    <t>E5,E6</t>
-  </si>
-  <si>
-    <t>荻野 惣之助</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>久保 多栄子</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>長沢 克</t>
-  </si>
-  <si>
-    <t>阿部 里香</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>寺田 保平</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>茂木 信好</t>
-  </si>
-  <si>
-    <t>野沢 邦江</t>
-  </si>
-  <si>
-    <t>高松 有</t>
-  </si>
-  <si>
-    <t>藤田 利克</t>
-  </si>
-  <si>
-    <t>工藤 宏幸</t>
-  </si>
-  <si>
-    <t>C1,C2,C3</t>
-  </si>
-  <si>
-    <t>新田 俊憲</t>
-  </si>
-  <si>
-    <t>清水 征二郎</t>
-  </si>
-  <si>
-    <t>長野 菊治</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>若林 亜依</t>
-  </si>
-  <si>
-    <t>村井 佐十郎</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>田上 孝成</t>
-  </si>
-  <si>
-    <t>藤沢 利克</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>藤村 英則</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
     <t>G6</t>
   </si>
   <si>
@@ -358,9 +358,6 @@
   </si>
   <si>
     <t>E7</t>
-  </si>
-  <si>
-    <t>G7</t>
   </si>
 </sst>
 </file>
@@ -727,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -775,7 +772,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -870,7 +867,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -881,10 +878,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -895,10 +892,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -909,10 +906,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -923,10 +920,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -937,10 +934,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -951,10 +948,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -965,10 +962,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -979,10 +976,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -993,10 +990,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1007,10 +1004,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1021,10 +1018,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1035,10 +1032,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1049,10 +1046,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1063,10 +1060,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1077,10 +1074,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1091,10 +1088,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1105,10 +1102,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1119,10 +1116,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1133,10 +1130,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1147,10 +1144,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1161,10 +1158,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1175,10 +1172,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1189,10 +1186,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1203,10 +1200,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1217,10 +1214,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1231,10 +1228,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1245,10 +1242,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1259,10 +1256,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1273,10 +1270,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1287,10 +1284,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1301,10 +1298,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1315,10 +1312,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1329,10 +1326,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1343,10 +1340,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1357,10 +1354,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1371,10 +1368,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1385,10 +1382,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1399,10 +1396,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1413,10 +1410,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1438,65 +1435,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1507,16 +1504,16 @@
         <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
         <v>99</v>
@@ -1530,39 +1527,39 @@
         <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
         <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
         <v>104</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
         <v>105</v>
       </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>106</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
       </c>
       <c r="G6" t="s">
         <v>107</v>
@@ -1579,16 +1576,16 @@
         <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
         <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1609,35 +1606,35 @@
   <sheetData>
     <row r="1" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
